--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15270" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12570" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Section 101 (MWF 9:00 - 9:50)</t>
   </si>
@@ -38,10 +38,6 @@
 TBD</t>
   </si>
   <si>
-    <t>Team 3:
-TBD</t>
-  </si>
-  <si>
     <t>Team 4:
 TBD</t>
   </si>
@@ -79,13 +75,136 @@
   <si>
     <t>Team 12:
 TBD</t>
+  </si>
+  <si>
+    <t>Tom Herbine</t>
+  </si>
+  <si>
+    <t>Ethan Hostle</t>
+  </si>
+  <si>
+    <t>Mike Reinhart</t>
+  </si>
+  <si>
+    <t>Adrian Castro</t>
+  </si>
+  <si>
+    <t>Darnell Hill</t>
+  </si>
+  <si>
+    <t>Zack Hirs</t>
+  </si>
+  <si>
+    <t>Joe Landau</t>
+  </si>
+  <si>
+    <t>Jason Bady</t>
+  </si>
+  <si>
+    <t>Quintin Herb</t>
+  </si>
+  <si>
+    <t>Patrick Nelson</t>
+  </si>
+  <si>
+    <t>Bill Abram</t>
+  </si>
+  <si>
+    <t>Dennis Chism</t>
+  </si>
+  <si>
+    <t>Joshua Grove</t>
+  </si>
+  <si>
+    <t>Alyssa Gross</t>
+  </si>
+  <si>
+    <t>Collin Brandt</t>
+  </si>
+  <si>
+    <t>Tim Jefferson</t>
+  </si>
+  <si>
+    <t>Tom McAdams</t>
+  </si>
+  <si>
+    <t>Jaden Marini</t>
+  </si>
+  <si>
+    <t>John Steck</t>
+  </si>
+  <si>
+    <t>Chase Traina</t>
+  </si>
+  <si>
+    <t>Dakota Hilbert</t>
+  </si>
+  <si>
+    <t>Zack Ronayne</t>
+  </si>
+  <si>
+    <t>Madison Tibbett</t>
+  </si>
+  <si>
+    <t>Sam Cesrario</t>
+  </si>
+  <si>
+    <t>Kyle Leatherman</t>
+  </si>
+  <si>
+    <t>Josiah Sam</t>
+  </si>
+  <si>
+    <t>Alex Doyle</t>
+  </si>
+  <si>
+    <t>Vince Maresca</t>
+  </si>
+  <si>
+    <t>Jennifer Rhine</t>
+  </si>
+  <si>
+    <t>Duncab Smucker</t>
+  </si>
+  <si>
+    <t>Jason Steinberg</t>
+  </si>
+  <si>
+    <t>Bill Taylor</t>
+  </si>
+  <si>
+    <t>Travis Wetzel</t>
+  </si>
+  <si>
+    <t>Tyler Kautz</t>
+  </si>
+  <si>
+    <t>Trevor Swan</t>
+  </si>
+  <si>
+    <t>Lucas Gartrell</t>
+  </si>
+  <si>
+    <t>Cole Rohrbaugh</t>
+  </si>
+  <si>
+    <t>Ben Yanick</t>
+  </si>
+  <si>
+    <t>Jake Stambaugh</t>
+  </si>
+  <si>
+    <t>Team 3: Physical Model Website and DB</t>
+  </si>
+  <si>
+    <t>Will Wyatt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,6 +447,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +789,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,34 +843,62 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="30"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -729,46 +922,72 @@
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -786,41 +1005,67 @@
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2019\teams-and-rosters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="12570" windowHeight="12075"/>
   </bookViews>
@@ -440,6 +445,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,39 +485,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,7 +794,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,12 +807,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -818,21 +823,21 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -853,10 +858,10 @@
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -867,10 +872,10 @@
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -881,10 +886,10 @@
       <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -892,32 +897,32 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -935,72 +940,72 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,10 +1029,10 @@
       <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1038,10 +1043,10 @@
       <c r="C24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1052,10 +1057,10 @@
       <c r="C25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1064,8 +1069,8 @@
         <v>22</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2019\teams-and-rosters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="12570" windowHeight="12075"/>
   </bookViews>
@@ -85,9 +80,6 @@
     <t>Tom Herbine</t>
   </si>
   <si>
-    <t>Ethan Hostle</t>
-  </si>
-  <si>
     <t>Mike Reinhart</t>
   </si>
   <si>
@@ -118,12 +110,6 @@
     <t>Dennis Chism</t>
   </si>
   <si>
-    <t>Joshua Grove</t>
-  </si>
-  <si>
-    <t>Alyssa Gross</t>
-  </si>
-  <si>
     <t>Collin Brandt</t>
   </si>
   <si>
@@ -151,9 +137,6 @@
     <t>Madison Tibbett</t>
   </si>
   <si>
-    <t>Sam Cesrario</t>
-  </si>
-  <si>
     <t>Kyle Leatherman</t>
   </si>
   <si>
@@ -169,9 +152,6 @@
     <t>Jennifer Rhine</t>
   </si>
   <si>
-    <t>Duncab Smucker</t>
-  </si>
-  <si>
     <t>Jason Steinberg</t>
   </si>
   <si>
@@ -203,6 +183,21 @@
   </si>
   <si>
     <t>Will Wyatt</t>
+  </si>
+  <si>
+    <t>Duncan Smucker</t>
+  </si>
+  <si>
+    <t>Alyssa Grove</t>
+  </si>
+  <si>
+    <t>Joshua Gross</t>
+  </si>
+  <si>
+    <t>Ethan Hostler</t>
+  </si>
+  <si>
+    <t>Sam Cesario</t>
   </si>
 </sst>
 </file>
@@ -399,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,12 +455,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,6 +474,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,7 +580,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,7 +792,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,12 +805,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -823,21 +821,21 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -848,81 +846,81 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,72 +938,72 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="18" t="s">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="23" t="s">
-        <v>45</v>
+      <c r="E18" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,53 +1022,53 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>46</v>
+      <c r="E23" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>47</v>
+      <c r="E24" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>48</v>
+      <c r="E25" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -164,9 +164,6 @@
     <t>Tyler Kautz</t>
   </si>
   <si>
-    <t>Trevor Swan</t>
-  </si>
-  <si>
     <t>Lucas Gartrell</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Sam Cesario</t>
+  </si>
+  <si>
+    <t>Trevor Swann</t>
   </si>
 </sst>
 </file>
@@ -467,6 +467,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,15 +483,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,7 +792,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,12 +805,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -821,21 +821,21 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>6</v>
@@ -863,7 +863,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -885,42 +885,42 @@
         <v>24</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>38</v>
@@ -956,7 +956,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>36</v>
@@ -983,27 +983,27 @@
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="29" t="s">
-        <v>52</v>
+      <c r="E18" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1027,10 +1027,10 @@
       <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1067,8 +1067,8 @@
         <v>21</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Section 101 (MWF 9:00 - 9:50)</t>
   </si>
@@ -27,177 +27,184 @@
     <t>CS320: Software Engineering Teams - Spring 2019</t>
   </si>
   <si>
-    <t>In-Class Mentors: TBD</t>
-  </si>
-  <si>
-    <t>Team 1:
-TBD</t>
-  </si>
-  <si>
-    <t>Team 2:
-TBD</t>
-  </si>
-  <si>
-    <t>Team 4:
-TBD</t>
-  </si>
-  <si>
     <t>Section 103 (MWF 2:00 - 2:50)</t>
-  </si>
-  <si>
-    <t>Team 5:
-TBD</t>
-  </si>
-  <si>
-    <t>Team 6:
-TBD</t>
   </si>
   <si>
     <t>Team 7:
 TBD</t>
   </si>
   <si>
+    <t>Tom Herbine</t>
+  </si>
+  <si>
+    <t>Mike Reinhart</t>
+  </si>
+  <si>
+    <t>Adrian Castro</t>
+  </si>
+  <si>
+    <t>Darnell Hill</t>
+  </si>
+  <si>
+    <t>Zack Hirs</t>
+  </si>
+  <si>
+    <t>Joe Landau</t>
+  </si>
+  <si>
+    <t>Jason Bady</t>
+  </si>
+  <si>
+    <t>Quintin Herb</t>
+  </si>
+  <si>
+    <t>Patrick Nelson</t>
+  </si>
+  <si>
+    <t>Bill Abram</t>
+  </si>
+  <si>
+    <t>Dennis Chism</t>
+  </si>
+  <si>
+    <t>Collin Brandt</t>
+  </si>
+  <si>
+    <t>Tim Jefferson</t>
+  </si>
+  <si>
+    <t>Tom McAdams</t>
+  </si>
+  <si>
+    <t>Jaden Marini</t>
+  </si>
+  <si>
+    <t>John Steck</t>
+  </si>
+  <si>
+    <t>Chase Traina</t>
+  </si>
+  <si>
+    <t>Dakota Hilbert</t>
+  </si>
+  <si>
+    <t>Zack Ronayne</t>
+  </si>
+  <si>
+    <t>Madison Tibbett</t>
+  </si>
+  <si>
+    <t>Kyle Leatherman</t>
+  </si>
+  <si>
+    <t>Josiah Sam</t>
+  </si>
+  <si>
+    <t>Alex Doyle</t>
+  </si>
+  <si>
+    <t>Vince Maresca</t>
+  </si>
+  <si>
+    <t>Jennifer Rhine</t>
+  </si>
+  <si>
+    <t>Jason Steinberg</t>
+  </si>
+  <si>
+    <t>Bill Taylor</t>
+  </si>
+  <si>
+    <t>Travis Wetzel</t>
+  </si>
+  <si>
+    <t>Tyler Kautz</t>
+  </si>
+  <si>
+    <t>Lucas Gartrell</t>
+  </si>
+  <si>
+    <t>Cole Rohrbaugh</t>
+  </si>
+  <si>
+    <t>Ben Yanick</t>
+  </si>
+  <si>
+    <t>Jake Stambaugh</t>
+  </si>
+  <si>
+    <t>Will Wyatt</t>
+  </si>
+  <si>
+    <t>Duncan Smucker</t>
+  </si>
+  <si>
+    <t>Alyssa Grove</t>
+  </si>
+  <si>
+    <t>Joshua Gross</t>
+  </si>
+  <si>
+    <t>Ethan Hostler</t>
+  </si>
+  <si>
+    <t>Sam Cesario</t>
+  </si>
+  <si>
+    <t>Trevor Swann</t>
+  </si>
+  <si>
+    <t>Team 9:
+TED Talk Reviews</t>
+  </si>
+  <si>
     <t>Team 8:
-TBD</t>
-  </si>
-  <si>
-    <t>Team 9:
-TBD</t>
+Adventure Game</t>
+  </si>
+  <si>
+    <t>Team 2:
+myCommencement</t>
+  </si>
+  <si>
+    <t>Team 3:
+Physical Model Database</t>
+  </si>
+  <si>
+    <t>Team 5:
+YCP Hacks Website</t>
   </si>
   <si>
     <t>Team 10:
-TBD</t>
+Labyrinth of Tramateck</t>
   </si>
   <si>
     <t>Team 11:
-TBD</t>
+Fractal Website</t>
   </si>
   <si>
     <t>Team 12:
-TBD</t>
-  </si>
-  <si>
-    <t>Tom Herbine</t>
-  </si>
-  <si>
-    <t>Mike Reinhart</t>
-  </si>
-  <si>
-    <t>Adrian Castro</t>
-  </si>
-  <si>
-    <t>Darnell Hill</t>
-  </si>
-  <si>
-    <t>Zack Hirs</t>
-  </si>
-  <si>
-    <t>Joe Landau</t>
-  </si>
-  <si>
-    <t>Jason Bady</t>
-  </si>
-  <si>
-    <t>Quintin Herb</t>
-  </si>
-  <si>
-    <t>Patrick Nelson</t>
-  </si>
-  <si>
-    <t>Bill Abram</t>
-  </si>
-  <si>
-    <t>Dennis Chism</t>
-  </si>
-  <si>
-    <t>Collin Brandt</t>
-  </si>
-  <si>
-    <t>Tim Jefferson</t>
-  </si>
-  <si>
-    <t>Tom McAdams</t>
-  </si>
-  <si>
-    <t>Jaden Marini</t>
-  </si>
-  <si>
-    <t>John Steck</t>
-  </si>
-  <si>
-    <t>Chase Traina</t>
-  </si>
-  <si>
-    <t>Dakota Hilbert</t>
-  </si>
-  <si>
-    <t>Zack Ronayne</t>
-  </si>
-  <si>
-    <t>Madison Tibbett</t>
-  </si>
-  <si>
-    <t>Kyle Leatherman</t>
-  </si>
-  <si>
-    <t>Josiah Sam</t>
-  </si>
-  <si>
-    <t>Alex Doyle</t>
-  </si>
-  <si>
-    <t>Vince Maresca</t>
-  </si>
-  <si>
-    <t>Jennifer Rhine</t>
-  </si>
-  <si>
-    <t>Jason Steinberg</t>
-  </si>
-  <si>
-    <t>Bill Taylor</t>
-  </si>
-  <si>
-    <t>Travis Wetzel</t>
-  </si>
-  <si>
-    <t>Tyler Kautz</t>
-  </si>
-  <si>
-    <t>Lucas Gartrell</t>
-  </si>
-  <si>
-    <t>Cole Rohrbaugh</t>
-  </si>
-  <si>
-    <t>Ben Yanick</t>
-  </si>
-  <si>
-    <t>Jake Stambaugh</t>
-  </si>
-  <si>
-    <t>Team 3: Physical Model Website and DB</t>
-  </si>
-  <si>
-    <t>Will Wyatt</t>
-  </si>
-  <si>
-    <t>Duncan Smucker</t>
-  </si>
-  <si>
-    <t>Alyssa Grove</t>
-  </si>
-  <si>
-    <t>Joshua Gross</t>
-  </si>
-  <si>
-    <t>Ethan Hostler</t>
-  </si>
-  <si>
-    <t>Sam Cesario</t>
-  </si>
-  <si>
-    <t>Trevor Swann</t>
+Capstone Team Tracking</t>
+  </si>
+  <si>
+    <t>Team 4:
+Chemistry IS Hub</t>
+  </si>
+  <si>
+    <t>Team 1:
+EntreLink</t>
+  </si>
+  <si>
+    <t>Team 6:
+Proceed with Caution</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Greg Plachno, Darren Webb</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Joel Horne, Cody Spath</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Ed Nardo, Cody Spath</t>
   </si>
 </sst>
 </file>
@@ -792,7 +799,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +838,7 @@
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -840,66 +847,66 @@
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="3"/>
@@ -916,7 +923,7 @@
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -925,58 +932,58 @@
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -984,13 +991,13 @@
       <c r="C18" s="25"/>
       <c r="D18" s="20"/>
       <c r="E18" s="26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -999,7 +1006,7 @@
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="30" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -1008,63 +1015,63 @@
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="27"/>

--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -30,10 +30,6 @@
     <t>Section 103 (MWF 2:00 - 2:50)</t>
   </si>
   <si>
-    <t>Team 7:
-TBD</t>
-  </si>
-  <si>
     <t>Tom Herbine</t>
   </si>
   <si>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>In-Class Mentors: Ed Nardo, Cody Spath</t>
+  </si>
+  <si>
+    <t>Team 7:
+JKS Orders</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,9 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,7 +796,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,12 +809,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -828,254 +825,254 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="D15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E17" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="26" t="s">
-        <v>39</v>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp19-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp19-Teams.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2019\teams-and-rosters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="12570" windowHeight="12075"/>
   </bookViews>
@@ -274,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +289,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,18 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,7 +536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,7 +783,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,12 +796,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -825,21 +812,21 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -860,10 +847,10 @@
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -874,10 +861,10 @@
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -888,10 +875,10 @@
       <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -899,32 +886,32 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -942,72 +929,72 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1031,10 +1018,10 @@
       <c r="C23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1045,10 +1032,10 @@
       <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1059,10 +1046,10 @@
       <c r="C25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1071,8 +1058,8 @@
         <v>9</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
